--- a/MAS/CV6/graphTable.xlsx
+++ b/MAS/CV6/graphTable.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadip\Documents\skoly\ING\2024Letní\MAS\MAS\CV6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF273F0-07BD-4C6F-A206-7301802C6D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E04BE-410E-442B-9108-87B594610FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="0.5" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="5.5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Počet komponent souvislosti</t>
   </si>
@@ -61,6 +65,9 @@
   </si>
   <si>
     <t>ve středu nejvyšší a při malých a vysokých klesá</t>
+  </si>
+  <si>
+    <t>Distribuce velikosti komponent</t>
   </si>
 </sst>
 </file>
@@ -116,6 +123,378 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209843</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F6EE76-E951-EB58-1F31-F2F784EB2008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5696243" cy="3797495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>273346</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697F7023-2739-3D37-1B8C-B607510A3DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="184150"/>
+          <a:ext cx="5759746" cy="3626036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197142</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D44158-77C6-45B4-BB10-BD992CC0183A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5683542" cy="3848298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533694</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8251FB8-A24A-460A-B72C-B30EAE316818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="0"/>
+          <a:ext cx="5715294" cy="3810196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228894</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AC04B4-11E6-8DE0-C33B-0C48576D3149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715294" cy="3848298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>216193</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DEDAB2-BE79-3763-13D0-87F545F58899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="0"/>
+          <a:ext cx="5702593" cy="3835597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266995</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F76DAF-2BCC-C6D0-A38B-E5252A8DB877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="0"/>
+          <a:ext cx="5740695" cy="3797495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292397</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CA7D0D-A05C-3E5F-5B21-A10EE872013C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="0"/>
+          <a:ext cx="5778797" cy="3816546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -392,7 +771,7 @@
     <col min="1" max="1" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -408,11 +787,11 @@
       <c r="E1">
         <v>5.4649999999999999</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,11 +807,11 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,11 +827,11 @@
       <c r="E3">
         <v>548</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -468,11 +847,11 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,11 +867,11 @@
       <c r="E5">
         <v>3.8889999999999998</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -508,11 +887,11 @@
       <c r="E6">
         <v>1.2E-2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,11 +907,11 @@
       <c r="E7">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -548,11 +927,84 @@
       <c r="E8">
         <v>0.4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C952A206-2348-452D-97A6-69084E28241B}">
+  <dimension ref="A22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD44CFA-21D7-4C5A-B3DB-F7D52B15491D}">
+  <dimension ref="A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660132D9-5D5B-4F94-841B-4B7DE82FF94E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E85D9D-57F3-48CA-8605-A7DAC3774715}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>